--- a/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Croatia/#EURO#Croatia#Commemorative#[2023-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA36AC25-4DD1-43D0-862B-0F92774AE275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D1015-1E4A-49D9-A342-1200C54D614D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7090" yWindow="1060" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Introduction of the Euro</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -414,6 +414,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,21 +427,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -449,15 +450,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,9 +472,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -757,7 +749,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -774,38 +766,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -814,16 +806,16 @@
         <v>2023</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
@@ -834,8 +826,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -844,7 +836,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -883,13 +875,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -897,10 +889,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -908,10 +900,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -919,10 +911,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -930,10 +922,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -941,10 +933,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -952,10 +944,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
